--- a/lesson_04/Ход конем.xlsx
+++ b/lesson_04/Ход конем.xlsx
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,8 +46,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,13 +84,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -106,14 +128,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -394,266 +428,631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="28" width="6.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1">
-        <v>10</v>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2">
+        <v>58</v>
+      </c>
+      <c r="M1" s="2">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2">
+        <v>34</v>
+      </c>
+      <c r="O1" s="2">
+        <v>37</v>
+      </c>
+      <c r="P1" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2">
+        <v>1</v>
+      </c>
+      <c r="U1" s="2">
+        <v>16</v>
+      </c>
+      <c r="V1" s="2">
+        <v>27</v>
+      </c>
+      <c r="W1" s="2">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2">
+        <v>57</v>
+      </c>
+      <c r="O2" s="2">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>10</v>
+      </c>
+      <c r="R2" s="2">
+        <v>13</v>
+      </c>
+      <c r="T2" s="2">
+        <v>26</v>
+      </c>
+      <c r="U2" s="2">
+        <v>23</v>
+      </c>
+      <c r="V2" s="2">
+        <v>2</v>
+      </c>
+      <c r="W2" s="2">
+        <v>17</v>
+      </c>
+      <c r="X2" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="6">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="AA2" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>59</v>
+      </c>
+      <c r="L3" s="2">
         <v>42</v>
       </c>
-      <c r="M2" s="2">
-        <v>31</v>
-      </c>
-      <c r="N2" s="4">
-        <v>2</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="M3" s="2">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2">
         <v>11</v>
       </c>
+      <c r="P3" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>17</v>
+      </c>
+      <c r="R3" s="2">
+        <v>24</v>
+      </c>
+      <c r="T3" s="2">
+        <v>15</v>
+      </c>
+      <c r="U3" s="2">
+        <v>28</v>
+      </c>
+      <c r="V3" s="2">
+        <v>25</v>
+      </c>
+      <c r="W3" s="2">
+        <v>62</v>
+      </c>
+      <c r="X3" s="6">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>12</v>
-      </c>
-      <c r="N3" s="2">
-        <v>41</v>
-      </c>
-      <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2">
+        <v>56</v>
+      </c>
+      <c r="N4" s="2">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>48</v>
+      </c>
+      <c r="P4" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2">
+        <v>19</v>
+      </c>
+      <c r="T4" s="2">
+        <v>24</v>
+      </c>
+      <c r="U4" s="2">
+        <v>35</v>
+      </c>
+      <c r="V4" s="2">
+        <v>30</v>
+      </c>
+      <c r="W4" s="2">
+        <v>45</v>
+      </c>
+      <c r="X4" s="2">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>63</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="6">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
+    </row>
+    <row r="5" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>43</v>
+      </c>
+      <c r="L5" s="3">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2">
+        <v>47</v>
+      </c>
+      <c r="N5" s="2">
+        <v>52</v>
+      </c>
+      <c r="O5" s="2">
+        <v>27</v>
+      </c>
+      <c r="P5" s="2">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>23</v>
+      </c>
+      <c r="R5" s="2">
+        <v>8</v>
+      </c>
+      <c r="T5" s="2">
+        <v>29</v>
+      </c>
+      <c r="U5" s="2">
+        <v>14</v>
+      </c>
+      <c r="V5" s="2">
+        <v>61</v>
+      </c>
+      <c r="W5" s="2">
+        <v>34</v>
+      </c>
+      <c r="X5" s="2">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>59</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>55</v>
+      </c>
+      <c r="M6" s="3">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2">
+        <v>49</v>
+      </c>
+      <c r="O6" s="2">
+        <v>46</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>20</v>
+      </c>
+      <c r="R6" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="T6" s="2">
+        <v>36</v>
+      </c>
+      <c r="U6" s="2">
+        <v>31</v>
+      </c>
+      <c r="V6" s="2">
+        <v>38</v>
+      </c>
+      <c r="W6" s="2">
+        <v>41</v>
+      </c>
+      <c r="X6" s="2">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>53</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>61</v>
+      </c>
+      <c r="L7" s="2">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2">
+        <v>53</v>
+      </c>
+      <c r="N7" s="2">
+        <v>28</v>
+      </c>
+      <c r="O7" s="2">
+        <v>51</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>7</v>
+      </c>
+      <c r="R7" s="2">
+        <v>22</v>
+      </c>
+      <c r="T7" s="2">
+        <v>13</v>
+      </c>
+      <c r="U7" s="2">
+        <v>40</v>
+      </c>
+      <c r="V7" s="2">
+        <v>33</v>
+      </c>
+      <c r="W7" s="2">
+        <v>50</v>
+      </c>
+      <c r="X7" s="2">
+        <v>11</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="2">
         <v>43</v>
       </c>
-      <c r="L4" s="2">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2">
-        <v>15</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="AA7" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>54</v>
+      </c>
+      <c r="L8" s="2">
+        <v>29</v>
+      </c>
+      <c r="M8" s="3">
+        <v>50</v>
+      </c>
+      <c r="N8" s="2">
+        <v>45</v>
+      </c>
+      <c r="O8" s="2">
+        <v>6</v>
+      </c>
+      <c r="P8" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>32</v>
+      </c>
+      <c r="U8" s="2">
+        <v>37</v>
+      </c>
+      <c r="V8" s="2">
+        <v>12</v>
+      </c>
+      <c r="W8" s="2">
+        <v>39</v>
+      </c>
+      <c r="X8" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>51</v>
+      </c>
+      <c r="Z8" s="2">
         <v>10</v>
       </c>
-      <c r="O4" s="2">
-        <v>3</v>
+      <c r="AA8" s="2">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>33</v>
-      </c>
-      <c r="K5" s="4">
-        <v>38</v>
-      </c>
-      <c r="L5" s="2">
-        <v>23</v>
-      </c>
-      <c r="M5" s="4">
-        <v>40</v>
-      </c>
-      <c r="N5" s="2">
-        <v>13</v>
-      </c>
-      <c r="O5" s="2">
-        <v>8</v>
+    <row r="9" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>MAX(B1:I8)</f>
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <f>MAX(K1:R8)</f>
+        <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>44</v>
-      </c>
-      <c r="K6" s="2">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2">
-        <v>16</v>
-      </c>
-      <c r="M6" s="2">
-        <v>9</v>
-      </c>
-      <c r="N6" s="2">
-        <v>4</v>
-      </c>
-      <c r="O6" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>34</v>
-      </c>
-      <c r="J7" s="3">
-        <v>37</v>
-      </c>
-      <c r="K7" s="2">
-        <v>22</v>
-      </c>
-      <c r="L7" s="3">
-        <v>41</v>
-      </c>
-      <c r="M7" s="2">
-        <v>24</v>
-      </c>
-      <c r="N7" s="2">
-        <v>7</v>
-      </c>
-      <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45</v>
-      </c>
-      <c r="J8" s="2">
-        <v>28</v>
-      </c>
-      <c r="K8" s="2">
-        <v>35</v>
-      </c>
-      <c r="L8" s="2">
-        <v>20</v>
-      </c>
-      <c r="M8" s="3">
-        <v>17</v>
-      </c>
-      <c r="N8" s="2">
-        <v>26</v>
-      </c>
-      <c r="O8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>36</v>
-      </c>
-      <c r="J9" s="2">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3">
-        <v>46</v>
-      </c>
-      <c r="L9" s="2">
-        <v>27</v>
-      </c>
-      <c r="M9" s="2">
-        <v>6</v>
-      </c>
-      <c r="N9" s="2">
-        <v>19</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f>MAX(H2:O9)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:27" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
